--- a/BalanceSheet/SBAC_bal.xlsx
+++ b/BalanceSheet/SBAC_bal.xlsx
@@ -4261,7 +4261,7 @@
         <v>12732000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>12722000000.0</v>
+        <v>10195873000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>9689222000.0</v>
@@ -4388,7 +4388,7 @@
         <v>12959000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>12861000000.0</v>
+        <v>10334425000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>9845502000.0</v>
